--- a/Race/demographics.xlsx
+++ b/Race/demographics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\CampaignFinances\Race\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C928AC38-7D47-41CA-BBCE-177E324A48D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF3948-410D-4325-9BAB-9DDF8946FFF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2E1C942-AF72-458B-B166-1279562A8C47}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13824" windowHeight="7176" xr2:uid="{A2E1C942-AF72-458B-B166-1279562A8C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t>Yarmouth</t>
   </si>
@@ -1116,13 +1116,40 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>West Roxbury</t>
+  </si>
+  <si>
+    <t>South Boston</t>
+  </si>
+  <si>
+    <t>Roxbury</t>
+  </si>
+  <si>
+    <t>Roslindale</t>
+  </si>
+  <si>
+    <t>Mattapan</t>
+  </si>
+  <si>
+    <t>Jamaica Plain</t>
+  </si>
+  <si>
+    <t>Hyde Park</t>
+  </si>
+  <si>
+    <t>East Boston</t>
+  </si>
+  <si>
+    <t>Dorchester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1171,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1159,7 +1193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1247,11 +1281,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1305,6 +1381,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A012E9-FE61-40FD-93FB-ED65D97786A7}">
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="A361" sqref="A353:J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12891,6 +12979,294 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
+    <row r="353" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A353" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353" s="20">
+        <v>30445</v>
+      </c>
+      <c r="C353" s="21">
+        <v>22302</v>
+      </c>
+      <c r="D353" s="22">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E353" s="21">
+        <v>2959</v>
+      </c>
+      <c r="F353" s="22">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G353" s="21">
+        <v>1976</v>
+      </c>
+      <c r="H353" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="I353" s="21">
+        <v>2573</v>
+      </c>
+      <c r="J353" s="23">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A354" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354" s="21">
+        <v>31110</v>
+      </c>
+      <c r="C354" s="21">
+        <v>24344</v>
+      </c>
+      <c r="D354" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="E354" s="19">
+        <v>1532</v>
+      </c>
+      <c r="F354" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G354" s="19">
+        <v>1488</v>
+      </c>
+      <c r="H354" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="I354" s="19">
+        <v>3216</v>
+      </c>
+      <c r="J354" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B355" s="24">
+        <v>49111</v>
+      </c>
+      <c r="C355" s="25">
+        <v>5002</v>
+      </c>
+      <c r="D355" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E355" s="19">
+        <v>25691</v>
+      </c>
+      <c r="F355" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="G355" s="19">
+        <v>1030</v>
+      </c>
+      <c r="H355" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="I355" s="26">
+        <v>14735</v>
+      </c>
+      <c r="J355" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356" s="20">
+        <v>26368</v>
+      </c>
+      <c r="C356" s="21">
+        <v>13363</v>
+      </c>
+      <c r="D356" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="E356" s="21">
+        <v>5376</v>
+      </c>
+      <c r="F356" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G356" s="27">
+        <v>675</v>
+      </c>
+      <c r="H356" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="I356" s="21">
+        <v>6156</v>
+      </c>
+      <c r="J356" s="23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B357" s="28">
+        <v>22500</v>
+      </c>
+      <c r="C357" s="21">
+        <v>1434</v>
+      </c>
+      <c r="D357" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="E357" s="21">
+        <v>17179</v>
+      </c>
+      <c r="F357" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="G357" s="27">
+        <v>386</v>
+      </c>
+      <c r="H357" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="I357" s="21">
+        <v>2722</v>
+      </c>
+      <c r="J357" s="23">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B358" s="20">
+        <v>35541</v>
+      </c>
+      <c r="C358" s="21">
+        <v>19061</v>
+      </c>
+      <c r="D358" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="E358" s="21">
+        <v>4462</v>
+      </c>
+      <c r="F358" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="G358" s="21">
+        <v>1692</v>
+      </c>
+      <c r="H358" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="I358" s="21">
+        <v>9140</v>
+      </c>
+      <c r="J358" s="23">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B359" s="20">
+        <v>32317</v>
+      </c>
+      <c r="C359" s="21">
+        <v>9128</v>
+      </c>
+      <c r="D359" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E359" s="21">
+        <v>15111</v>
+      </c>
+      <c r="F359" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="G359" s="27">
+        <v>535</v>
+      </c>
+      <c r="H359" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="I359" s="21">
+        <v>6507</v>
+      </c>
+      <c r="J359" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360" s="28">
+        <v>40508</v>
+      </c>
+      <c r="C360" s="21">
+        <v>15051</v>
+      </c>
+      <c r="D360" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="E360" s="21">
+        <v>1283</v>
+      </c>
+      <c r="F360" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="G360" s="21">
+        <v>1413</v>
+      </c>
+      <c r="H360" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="I360" s="21">
+        <v>21419</v>
+      </c>
+      <c r="J360" s="23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361" s="28">
+        <v>114249</v>
+      </c>
+      <c r="C361" s="21">
+        <v>25322</v>
+      </c>
+      <c r="D361" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="E361" s="21">
+        <v>49144</v>
+      </c>
+      <c r="F361" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="G361" s="21">
+        <v>10637</v>
+      </c>
+      <c r="H361" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="I361" s="21">
+        <v>19407</v>
+      </c>
+      <c r="J361" s="23">
+        <v>0.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
